--- a/PracticaSeguridad/NW_Seguridad.xlsx
+++ b/PracticaSeguridad/NW_Seguridad.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\EGCC\SQL-SERVER-ADM-001\PracticaSeguridad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="10320" windowHeight="4950"/>
+    <workbookView xWindow="600" yWindow="96" windowWidth="10320" windowHeight="4956"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -40,8 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +62,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -141,7 +154,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -152,6 +165,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +251,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +286,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,25 +462,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="22.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60">
+    <row r="1" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -477,7 +500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -485,7 +508,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="7"/>
@@ -493,7 +516,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -501,7 +524,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="7"/>
@@ -509,7 +532,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
@@ -517,7 +540,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -525,7 +548,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -533,7 +556,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -541,7 +564,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -549,7 +572,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -557,7 +580,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -565,7 +588,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -573,7 +596,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -581,7 +604,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -589,7 +612,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -597,7 +620,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -605,7 +628,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -613,7 +636,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -621,7 +644,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -629,7 +652,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -637,7 +660,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -645,7 +668,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -653,7 +676,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -661,7 +684,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -676,24 +699,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
